--- a/data/sjp_data_catalog.xlsx
+++ b/data/sjp_data_catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre-my.sharepoint.com/personal/kcjoe_mitre_org/Documents/Documents/R/sjp-data-catalog/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="6_{E8BFB680-39B2-7943-BA32-D6B47055C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FC6384-7CE0-437A-9462-2D9F807D899C}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="6_{E8BFB680-39B2-7943-BA32-D6B47055C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{151CC87A-CE9E-4D56-B7D7-78C4B32FCBBD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{5CA8705D-7F17-43E2-BAEE-43EEC2F1251D}"/>
+    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{5CA8705D-7F17-43E2-BAEE-43EEC2F1251D}"/>
   </bookViews>
   <sheets>
     <sheet name="guidelines" sheetId="15" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>Update Frequency</t>
   </si>
   <si>
-    <t>Length of Survey</t>
-  </si>
-  <si>
     <t>File Formats</t>
   </si>
   <si>
@@ -2798,6 +2795,9 @@
   </si>
   <si>
     <t>Dataset; Socioeconomic Status; Population; Demographics; Economy; Physical Infrastructure; Accessibility</t>
+  </si>
+  <si>
+    <t>Aggregation Length</t>
   </si>
 </sst>
 </file>
@@ -3803,311 +3803,311 @@
         <v>16</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>778</v>
       </c>
-      <c r="B2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>779</v>
-      </c>
       <c r="E2" s="52" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
+        <v>787</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>501</v>
+      </c>
+      <c r="C12" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="52" t="s">
         <v>788</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>502</v>
-      </c>
-      <c r="C12" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>789</v>
       </c>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B13" t="s">
         <v>790</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>791</v>
-      </c>
-      <c r="C13" t="s">
-        <v>792</v>
       </c>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" t="s">
         <v>793</v>
       </c>
-      <c r="B14" t="s">
-        <v>502</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" s="52" t="s">
         <v>794</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>795</v>
       </c>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B15" t="s">
+        <v>501</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>796</v>
-      </c>
-      <c r="B15" t="s">
-        <v>502</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>797</v>
       </c>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" t="s">
         <v>798</v>
       </c>
-      <c r="B16" t="s">
-        <v>502</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="52" t="s">
         <v>799</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>800</v>
       </c>
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="B17" t="s">
+        <v>711</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B17" t="s">
-        <v>712</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="52" t="s">
         <v>802</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>803</v>
       </c>
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="B18" t="s">
         <v>804</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>805</v>
       </c>
-      <c r="C18" t="s">
-        <v>806</v>
-      </c>
       <c r="D18" s="52" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" t="s">
+        <v>804</v>
+      </c>
+      <c r="C19" t="s">
         <v>807</v>
       </c>
-      <c r="B19" t="s">
-        <v>805</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" s="52" t="s">
         <v>808</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>809</v>
       </c>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B21" t="s">
+        <v>689</v>
+      </c>
+      <c r="C21" t="s">
         <v>811</v>
       </c>
-      <c r="B21" t="s">
-        <v>690</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" s="52" t="s">
         <v>812</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>813</v>
       </c>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>813</v>
+      </c>
+      <c r="B22" t="s">
         <v>814</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="52" t="s">
         <v>816</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>817</v>
       </c>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>817</v>
+      </c>
+      <c r="B23" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="B23" t="s">
-        <v>690</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>819</v>
+      </c>
+      <c r="B24" t="s">
         <v>820</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="52" t="s">
         <v>822</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>823</v>
       </c>
       <c r="E24" s="52"/>
     </row>
@@ -4156,24 +4156,24 @@
         <v>19</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>825</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>826</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>828</v>
-      </c>
       <c r="E2" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -4181,87 +4181,87 @@
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" t="s">
         <v>504</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>505</v>
-      </c>
-      <c r="C3" t="s">
-        <v>829</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B4" t="s">
         <v>509</v>
       </c>
-      <c r="B4" t="s">
-        <v>510</v>
-      </c>
       <c r="C4" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>830</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>831</v>
-      </c>
       <c r="E4" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E5" t="s">
         <v>520</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="E5" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>525</v>
-      </c>
       <c r="C6" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="28" t="s">
         <v>834</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>523</v>
-      </c>
       <c r="C7" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>836</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>837</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
@@ -4324,128 +4324,128 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>838</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>839</v>
-      </c>
       <c r="C1" s="59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B2" s="58">
         <v>44630</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B3" s="58">
         <v>44644</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B4" s="58">
         <v>44665</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="131" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B5" s="58">
         <v>44644</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B6" s="58">
         <v>44651</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="131" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B7" s="58">
         <v>44658</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="131" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B8" s="58">
         <v>44658</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="131" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B9" s="58">
         <v>44662</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="131" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B10" s="58">
         <v>44665</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B11" s="58">
         <v>44679</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B12" s="58">
         <v>44693</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B13" s="58">
         <v>44693</v>
@@ -4483,11 +4483,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4534,2060 +4534,2060 @@
         <v>23</v>
       </c>
       <c r="I1" s="62" t="s">
+        <v>891</v>
+      </c>
+      <c r="J1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="K1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="L1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="M1" s="62" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="D2" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="E2" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="I2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="K2" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="69" t="s">
         <v>37</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="69" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="C3" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="E3" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="F3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="69" t="s">
+      <c r="K3" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="69" t="s">
         <v>45</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="69" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="D4" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="E4" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="F4" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="I4" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="J4" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="124" t="s">
+      <c r="K4" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="L4" s="63" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="63" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>61</v>
-      </c>
       <c r="J5" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="L5" s="63" t="s">
         <v>57</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="66" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>63</v>
-      </c>
       <c r="J6" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="L6" s="63" t="s">
         <v>57</v>
-      </c>
-      <c r="L6" s="63" t="s">
-        <v>58</v>
       </c>
       <c r="M6" s="64"/>
     </row>
     <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="D7" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="E7" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="F7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="69" t="s">
+      <c r="K7" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="69" t="s">
         <v>71</v>
-      </c>
-      <c r="K7" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="D8" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="E8" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="107" t="s">
-        <v>76</v>
-      </c>
       <c r="F8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="H8" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="69" t="s">
+      <c r="K8" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="69" t="s">
         <v>71</v>
-      </c>
-      <c r="K8" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="69" t="s">
-        <v>72</v>
       </c>
       <c r="M8" s="64"/>
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="63" t="s">
+      <c r="D9" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="E9" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="F9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="69" t="s">
+      <c r="K9" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="69" t="s">
         <v>83</v>
-      </c>
-      <c r="K9" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="69" t="s">
-        <v>84</v>
       </c>
       <c r="M9" s="64"/>
     </row>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="C10" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="D10" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="E10" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="69" t="s">
+      <c r="K10" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="K10" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="69" t="s">
-        <v>92</v>
       </c>
       <c r="M10" s="64"/>
     </row>
     <row r="11" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="65" t="s">
+      <c r="D11" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="E11" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="F11" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="67" t="s">
+      <c r="H11" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="65" t="s">
+      <c r="K11" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="K11" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="65" t="s">
-        <v>99</v>
       </c>
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="C12" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="D12" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="E12" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="F12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="H12" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="69" t="s">
+      <c r="K12" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="69" t="s">
         <v>107</v>
-      </c>
-      <c r="K12" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="69" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="63" t="s">
+      <c r="D13" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="E13" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="64" t="s">
+      <c r="G13" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="69" t="s">
+      <c r="K13" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="63" t="s">
         <v>114</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="63" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="69" t="s">
+      <c r="D14" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="E14" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="F14" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="69" t="s">
+      <c r="K14" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="65" t="s">
         <v>123</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="65" t="s">
-        <v>124</v>
       </c>
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="69" t="s">
+      <c r="D15" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="E15" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="F15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="H15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="69" t="s">
         <v>129</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="133" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="69" t="s">
-        <v>130</v>
       </c>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="69" t="s">
+      <c r="D16" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="E16" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="F16" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="H16" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>137</v>
-      </c>
       <c r="J16" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="63" t="s">
         <v>123</v>
-      </c>
-      <c r="K16" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="63" t="s">
-        <v>124</v>
       </c>
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" s="15" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="69" t="s">
+      <c r="D17" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="E17" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="F17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="H17" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>143</v>
-      </c>
       <c r="J17" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="63" t="s">
         <v>123</v>
-      </c>
-      <c r="K17" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="63" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="D18" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="E18" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="F18" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="G18" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="H18" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="64" t="s">
+      <c r="J18" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="K18" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="63" t="s">
         <v>152</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="63" t="s">
-        <v>153</v>
       </c>
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="1:13" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="63" t="s">
+      <c r="D19" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="E19" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="110" t="s">
+      <c r="F19" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="G19" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="H19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="69" t="s">
+      <c r="K19" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="L19" s="63" t="s">
         <v>161</v>
-      </c>
-      <c r="L19" s="63" t="s">
-        <v>162</v>
       </c>
       <c r="M19" s="64"/>
     </row>
     <row r="20" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="D20" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="E20" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="H20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="22" t="s">
+      <c r="J20" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="63" t="s">
         <v>168</v>
-      </c>
-      <c r="J20" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="63" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="C21" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="D21" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="E21" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="H21" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="I21" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="J21" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="J21" s="124" t="s">
+      <c r="K21" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="63" t="s">
+      <c r="M21" s="64" t="s">
         <v>178</v>
-      </c>
-      <c r="M21" s="64" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="C22" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="D22" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="106" t="s">
+      <c r="E22" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="108" t="s">
+      <c r="F22" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="G22" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="H22" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="I22" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="J22" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="J22" s="124" t="s">
+      <c r="K22" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="K22" s="83" t="s">
+      <c r="L22" s="63" t="s">
+        <v>879</v>
+      </c>
+      <c r="M22" s="64" t="s">
         <v>190</v>
-      </c>
-      <c r="L22" s="63" t="s">
-        <v>880</v>
-      </c>
-      <c r="M22" s="64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A23" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="63" t="s">
+      <c r="D23" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="E23" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="107" t="s">
-        <v>195</v>
-      </c>
       <c r="F23" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="18">
         <v>2021</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" s="133" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K23" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" s="74" t="s">
         <v>196</v>
-      </c>
-      <c r="M23" s="74" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="C24" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="D24" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="E24" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="107" t="s">
+      <c r="F24" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="G24" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="69" t="s">
+      <c r="K24" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="69" t="s">
         <v>204</v>
-      </c>
-      <c r="K24" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="69" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="C25" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="D25" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="E25" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="107" t="s">
+      <c r="F25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="69" t="s">
+      <c r="K25" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="69" t="s">
         <v>211</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="69" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="C26" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="D26" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="E26" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="109" t="s">
-        <v>216</v>
-      </c>
-      <c r="F26" s="15" t="s">
+      <c r="G26" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="H26" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="69" t="s">
         <v>218</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="69" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="D27" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="E27" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="F27" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="G27" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="69" t="s">
         <v>226</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="69" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="C28" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="D28" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="E28" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E28" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>232</v>
-      </c>
       <c r="H28" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="63" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="C29" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="D29" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="E29" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="E29" s="111" t="s">
+      <c r="F29" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="G29" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="H29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="63" t="s">
         <v>239</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="K29" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="63" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="110" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="110" t="s">
+      <c r="E30" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E30" s="110" t="s">
-        <v>242</v>
-      </c>
-      <c r="F30" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>243</v>
-      </c>
       <c r="H30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="J30" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K30" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" s="63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M30" s="64"/>
     </row>
     <row r="31" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="C31" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="D31" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="D31" s="111" t="s">
+      <c r="E31" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="E31" s="111" t="s">
+      <c r="F31" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="64" t="s">
+      <c r="G31" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="I31" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="I31" s="68" t="s">
+      <c r="J31" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="63" t="s">
         <v>252</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="63" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="63" t="s">
+      <c r="D32" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="E32" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="F32" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="G32" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="H32" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="69" t="s">
+      <c r="K32" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="69" t="s">
         <v>260</v>
-      </c>
-      <c r="K32" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="69" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" s="107" t="s">
+      <c r="E33" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E33" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>264</v>
-      </c>
       <c r="H33" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="64" t="s">
-        <v>55</v>
-      </c>
       <c r="J33" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="69" t="s">
         <v>260</v>
-      </c>
-      <c r="K33" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="69" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="B34" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="69" t="s">
+      <c r="D34" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="E34" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="107" t="s">
+      <c r="F34" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="G34" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="H34" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="I34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="69" t="s">
+      <c r="K34" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="K34" s="83" t="s">
+      <c r="L34" s="69" t="s">
+        <v>874</v>
+      </c>
+      <c r="M34" s="64" t="s">
         <v>273</v>
-      </c>
-      <c r="L34" s="69" t="s">
-        <v>875</v>
-      </c>
-      <c r="M34" s="64" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="B35" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="C35" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="D35" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="D35" s="108" t="s">
+      <c r="E35" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="F35" s="64" t="s">
+      <c r="G35" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="H35" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="H35" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="15" t="s">
+      <c r="J35" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="J35" s="134" t="s">
+      <c r="K35" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="63" t="s">
         <v>282</v>
-      </c>
-      <c r="K35" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="63" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="D36" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="E36" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="110" t="s">
+      <c r="F36" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="22" t="s">
+      <c r="H36" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="H36" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="69" t="s">
-        <v>290</v>
-      </c>
       <c r="K36" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L36" s="69" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="C37" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="D37" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="109" t="s">
+      <c r="F37" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="G37" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="64" t="s">
+      <c r="I37" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="I37" s="64" t="s">
+      <c r="J37" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="69" t="s">
         <v>297</v>
-      </c>
-      <c r="J37" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="K37" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L37" s="69" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C38" s="69" t="s">
+      <c r="D38" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="D38" s="107" t="s">
+      <c r="E38" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E38" s="107" t="s">
-        <v>301</v>
-      </c>
-      <c r="F38" s="15" t="s">
+      <c r="G38" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="69" t="s">
         <v>302</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="69" t="s">
-        <v>303</v>
-      </c>
       <c r="K38" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" s="69" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="C39" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="D39" s="108" t="s">
         <v>306</v>
       </c>
-      <c r="D39" s="108" t="s">
+      <c r="E39" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="E39" s="107" t="s">
+      <c r="F39" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="H39" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="H39" s="64" t="s">
+      <c r="I39" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="I39" s="64" t="s">
+      <c r="K39" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="63" t="s">
         <v>311</v>
-      </c>
-      <c r="K39" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="63" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="B40" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="63" t="s">
+      <c r="D40" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="D40" s="107" t="s">
+      <c r="E40" s="108" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="108" t="s">
+      <c r="F40" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="G40" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="H40" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="69" t="s">
+      <c r="K40" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="63" t="s">
         <v>319</v>
-      </c>
-      <c r="K40" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="63" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="C41" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="D41" s="108" t="s">
         <v>323</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="E41" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="E41" s="108" t="s">
+      <c r="F41" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="G41" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="H41" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="69" t="s">
         <v>327</v>
-      </c>
-      <c r="H41" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L41" s="69" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="B42" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="69" t="s">
+      <c r="D42" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="E42" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="E42" s="110" t="s">
+      <c r="F42" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="22" t="s">
+      <c r="H42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="H42" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="69" t="s">
+      <c r="K42" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="69" t="s">
         <v>334</v>
-      </c>
-      <c r="K42" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" s="69" t="s">
-        <v>335</v>
       </c>
       <c r="M42" s="15"/>
     </row>
     <row r="43" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="C43" s="69" t="s">
+      <c r="D43" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="E43" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="E43" s="110" t="s">
+      <c r="F43" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="22" t="s">
+      <c r="H43" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="69" t="s">
         <v>340</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="K43" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" s="69" t="s">
-        <v>341</v>
       </c>
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="B44" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="C44" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="D44" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="E44" s="108" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="108" t="s">
+      <c r="F44" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="G44" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="H44" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="63" t="s">
         <v>348</v>
-      </c>
-      <c r="H44" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" s="63" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="B45" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="C45" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="D45" s="106" t="s">
         <v>352</v>
       </c>
-      <c r="D45" s="106" t="s">
+      <c r="E45" s="106" t="s">
+        <v>352</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="E45" s="106" t="s">
-        <v>353</v>
-      </c>
-      <c r="F45" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="18" t="s">
+      <c r="H45" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J45" s="124" t="s">
+      <c r="K45" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="63" t="s">
+        <v>881</v>
+      </c>
+      <c r="M45" s="64" t="s">
         <v>355</v>
-      </c>
-      <c r="K45" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" s="63" t="s">
-        <v>882</v>
-      </c>
-      <c r="M45" s="64" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="C46" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="D46" s="107" t="s">
         <v>359</v>
       </c>
-      <c r="D46" s="107" t="s">
+      <c r="E46" s="107" t="s">
         <v>360</v>
       </c>
-      <c r="E46" s="107" t="s">
+      <c r="F46" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="G46" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="H46" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="73" t="s">
+        <v>362</v>
+      </c>
+      <c r="J46" s="69" t="s">
         <v>363</v>
       </c>
-      <c r="H46" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="J46" s="69" t="s">
+      <c r="K46" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="69" t="s">
         <v>364</v>
-      </c>
-      <c r="K46" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L46" s="69" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="B47" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="63" t="s">
+      <c r="D47" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="D47" s="106" t="s">
+      <c r="E47" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="E47" s="106" t="s">
-        <v>368</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="18" t="s">
+      <c r="H47" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>370</v>
-      </c>
       <c r="I47" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J47" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="69" t="s">
         <v>37</v>
-      </c>
-      <c r="K47" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L47" s="69" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="69" t="s">
+      <c r="D48" s="107" t="s">
         <v>372</v>
       </c>
-      <c r="D48" s="107" t="s">
+      <c r="E48" s="107" t="s">
+        <v>372</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E48" s="107" t="s">
-        <v>373</v>
-      </c>
-      <c r="F48" s="15" t="s">
+      <c r="G48" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="H48" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="I48" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48" s="69" t="s">
         <v>375</v>
       </c>
-      <c r="H48" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="I48" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="J48" s="69" t="s">
+      <c r="K48" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="69" t="s">
         <v>376</v>
-      </c>
-      <c r="K48" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L48" s="69" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="B49" s="64" t="s">
         <v>378</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="C49" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="D49" s="107" t="s">
         <v>380</v>
       </c>
-      <c r="D49" s="107" t="s">
+      <c r="E49" s="107" t="s">
         <v>381</v>
       </c>
-      <c r="E49" s="107" t="s">
+      <c r="F49" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>383</v>
       </c>
       <c r="G49" s="18">
         <v>2021</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J49" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K49" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L49" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="M49" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B50" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="C50" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="D50" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="D50" s="107" t="s">
+      <c r="E50" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="E50" s="107" t="s">
+      <c r="F50" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="G50" s="124" t="s">
+        <v>857</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="K50" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="69" t="s">
         <v>391</v>
-      </c>
-      <c r="G50" s="124" t="s">
-        <v>858</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J50" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="K50" s="125" t="s">
-        <v>35</v>
-      </c>
-      <c r="L50" s="69" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B51" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="D51" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="E51" s="107" t="s">
-        <v>224</v>
-      </c>
-      <c r="F51" s="15" t="s">
+      <c r="G51" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="H51" t="s">
         <v>394</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="69" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="J51" s="69" t="s">
-        <v>396</v>
-      </c>
       <c r="K51" s="125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L51" s="69" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="B52" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="C52" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="D52" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="D52" s="107" t="s">
+      <c r="E52" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="E52" s="69" t="s">
-        <v>401</v>
-      </c>
       <c r="F52" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G52" s="18">
         <v>2021</v>
       </c>
       <c r="H52" s="127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K52" s="125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L52" s="69" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A53" s="63" t="s">
+        <v>853</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>854</v>
       </c>
-      <c r="B53" s="64" t="s">
-        <v>407</v>
-      </c>
-      <c r="C53" s="52" t="s">
+      <c r="D53" s="107" t="s">
         <v>855</v>
       </c>
-      <c r="D53" s="107" t="s">
+      <c r="E53" s="107" t="s">
+        <v>481</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="E53" s="107" t="s">
-        <v>482</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>857</v>
-      </c>
       <c r="G53" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H53" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J53" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K53" s="125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L53" s="64" t="s">
+        <v>859</v>
+      </c>
+      <c r="M53" s="15" t="s">
         <v>860</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="63" t="s">
+        <v>861</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="135" t="s">
         <v>862</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" s="135" t="s">
+      <c r="D54" s="109" t="s">
+        <v>864</v>
+      </c>
+      <c r="E54" s="109" t="s">
+        <v>864</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>863</v>
-      </c>
-      <c r="D54" s="109" t="s">
-        <v>865</v>
-      </c>
-      <c r="E54" s="109" t="s">
-        <v>865</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>864</v>
       </c>
       <c r="G54" s="18">
         <v>2019</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="J54" s="69" t="s">
         <v>867</v>
       </c>
-      <c r="J54" s="69" t="s">
+      <c r="L54" s="64" t="s">
         <v>868</v>
-      </c>
-      <c r="L54" s="64" t="s">
-        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -6696,7 +6696,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6723,228 +6723,228 @@
         <v>19</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="C2" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="D2" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="E2" s="52" t="s">
         <v>405</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="E3" s="52" t="s">
         <v>410</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="C4" s="52" t="s">
         <v>413</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="D4" s="86" t="s">
         <v>414</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="E4" s="52" t="s">
         <v>415</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="52" t="s">
+      <c r="D5" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="E5" s="52" t="s">
         <v>419</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="C6" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="D6" s="86" t="s">
         <v>423</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="E6" s="52" t="s">
         <v>424</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="C7" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="D7" s="86" t="s">
         <v>428</v>
       </c>
-      <c r="D7" s="86" t="s">
-        <v>429</v>
-      </c>
       <c r="E7" s="52" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="C8" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="D8" s="86" t="s">
         <v>432</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="E8" s="52" t="s">
         <v>433</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="77" t="s">
         <v>435</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="C9" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="D9" s="86" t="s">
         <v>437</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="E9" s="52" t="s">
         <v>438</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" s="52" t="s">
+      <c r="D10" s="86" t="s">
         <v>441</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="E10" s="52" t="s">
         <v>442</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="C11" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="D11" s="86" t="s">
         <v>446</v>
       </c>
-      <c r="D11" s="86" t="s">
-        <v>447</v>
-      </c>
       <c r="E11" s="52" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>448</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="C12" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="D12" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>451</v>
-      </c>
       <c r="E12" s="52" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="B13" s="126" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="52" t="s">
+      <c r="D13" s="86" t="s">
         <v>453</v>
       </c>
-      <c r="D13" s="86" t="s">
-        <v>454</v>
-      </c>
       <c r="E13" s="52" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>455</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="C14" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="D14" s="52" t="s">
         <v>457</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>458</v>
-      </c>
       <c r="E14" s="52" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7118,7 +7118,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -7153,162 +7153,162 @@
         <v>21</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>463</v>
-      </c>
       <c r="G2" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="G3" s="84" t="s">
         <v>468</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>469</v>
       </c>
       <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="84" t="s">
         <v>471</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="D4" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>473</v>
-      </c>
       <c r="E4" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G4" s="136" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H4" s="84"/>
     </row>
     <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="G5" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" s="53" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="85" t="s">
+      <c r="D6" s="56" t="s">
         <v>480</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="E6" s="56" t="s">
         <v>481</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="G6" s="85" t="s">
         <v>482</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>483</v>
       </c>
       <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" t="s">
         <v>484</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="G7" s="84" t="s">
         <v>487</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>488</v>
       </c>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" t="s">
         <v>489</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="86" t="s">
         <v>491</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="E8" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="G8" s="52" t="s">
         <v>492</v>
       </c>
-      <c r="E8" s="86" t="s">
-        <v>492</v>
-      </c>
-      <c r="G8" s="52" t="s">
+      <c r="H8" s="84" t="s">
         <v>493</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7454,7 +7454,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -7472,879 +7472,879 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C1" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>497</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>214</v>
       </c>
       <c r="E2">
         <v>2014</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G2" t="s">
         <v>502</v>
-      </c>
-      <c r="G2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C3" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>292</v>
       </c>
       <c r="E3">
         <v>2014</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G3" t="s">
         <v>502</v>
-      </c>
-      <c r="G3" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C4" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>504</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>505</v>
       </c>
       <c r="E4" s="46">
         <v>2015</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="90" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" t="s">
         <v>502</v>
-      </c>
-      <c r="G5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G6" t="s">
         <v>502</v>
-      </c>
-      <c r="G6" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="E7" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>511</v>
-      </c>
       <c r="F7" s="47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="32">
         <v>2019</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G8" t="s">
         <v>502</v>
-      </c>
-      <c r="G8" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="32">
         <v>2019</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G9" t="s">
         <v>502</v>
-      </c>
-      <c r="G9" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B10" s="90" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="C10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="E10" s="32" t="s">
         <v>513</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>514</v>
-      </c>
       <c r="F10" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G10" t="s">
         <v>502</v>
-      </c>
-      <c r="G10" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>350</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>351</v>
       </c>
       <c r="E11" s="32">
         <v>2018</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G11" t="s">
         <v>502</v>
-      </c>
-      <c r="G11" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="G12" t="s">
         <v>502</v>
-      </c>
-      <c r="G12" t="s">
-        <v>503</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>515</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>516</v>
       </c>
       <c r="E13" s="32">
         <v>2017</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>86</v>
-      </c>
       <c r="E14" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="G14" t="s">
         <v>502</v>
-      </c>
-      <c r="G14" t="s">
-        <v>503</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="G15" t="s">
         <v>502</v>
-      </c>
-      <c r="G15" t="s">
-        <v>503</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>519</v>
-      </c>
       <c r="F16" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>516</v>
+      </c>
+      <c r="G17" s="46" t="s">
         <v>520</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>521</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>207</v>
-      </c>
       <c r="E18" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="G18" t="s">
         <v>502</v>
-      </c>
-      <c r="G18" t="s">
-        <v>503</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>100</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>101</v>
       </c>
       <c r="E19" s="40">
         <v>2017</v>
       </c>
       <c r="F19" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="G19" t="s">
         <v>502</v>
-      </c>
-      <c r="G19" t="s">
-        <v>503</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C20" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>523</v>
-      </c>
       <c r="E20" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C21" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="D21" s="46" t="s">
         <v>524</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="E21" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="51" t="s">
         <v>525</v>
       </c>
-      <c r="E21" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="51" t="s">
+      <c r="G21" s="46" t="s">
         <v>526</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>527</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="80" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B22" s="100"/>
       <c r="C22" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="80" t="s">
-        <v>48</v>
-      </c>
       <c r="E22" s="101" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F22" s="102" t="s">
+        <v>501</v>
+      </c>
+      <c r="G22" s="80" t="s">
         <v>502</v>
-      </c>
-      <c r="G22" s="80" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="80" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B23" s="100"/>
       <c r="C23" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="101" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F23" s="102" t="s">
+        <v>501</v>
+      </c>
+      <c r="G23" s="80" t="s">
         <v>502</v>
-      </c>
-      <c r="G23" s="80" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B24" s="100"/>
       <c r="C24" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="80" t="s">
-        <v>431</v>
-      </c>
       <c r="E24" s="104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B25" s="100"/>
       <c r="C25" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E25" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F25" s="102" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B26" s="100"/>
       <c r="C26" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="D26" s="80" t="s">
-        <v>379</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>532</v>
-      </c>
       <c r="F26" s="114" t="s">
+        <v>501</v>
+      </c>
+      <c r="G26" s="80" t="s">
         <v>502</v>
-      </c>
-      <c r="G26" s="80" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B27" s="100"/>
       <c r="C27" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E27" s="104" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F27" s="102" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G27" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B28" s="119"/>
       <c r="C28" s="120" t="s">
+        <v>532</v>
+      </c>
+      <c r="D28" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="D28" s="120" t="s">
-        <v>534</v>
-      </c>
       <c r="E28" s="121" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F28" s="122" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B29" s="119"/>
       <c r="C29" s="120" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D29" s="120" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E29" s="123" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F29" s="122" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G29" s="120" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="80" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B30" s="100"/>
       <c r="C30" s="80" t="s">
+        <v>443</v>
+      </c>
+      <c r="D30" s="80" t="s">
         <v>444</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>445</v>
-      </c>
       <c r="E30" s="103" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G30" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D31" s="80" t="s">
-        <v>387</v>
-      </c>
       <c r="E31" s="103" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F31" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="G31" s="80" t="s">
         <v>502</v>
-      </c>
-      <c r="G31" s="80" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B32" s="100"/>
       <c r="C32" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="D32" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="D32" s="80" t="s">
-        <v>449</v>
-      </c>
       <c r="E32" s="103" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B33" s="100"/>
       <c r="C33" s="128" t="s">
+        <v>454</v>
+      </c>
+      <c r="D33" s="128" t="s">
         <v>455</v>
       </c>
-      <c r="D33" s="128" t="s">
-        <v>456</v>
-      </c>
       <c r="E33" s="129" t="s">
+        <v>536</v>
+      </c>
+      <c r="F33" s="130" t="s">
+        <v>528</v>
+      </c>
+      <c r="G33" s="128" t="s">
         <v>537</v>
-      </c>
-      <c r="F33" s="130" t="s">
-        <v>529</v>
-      </c>
-      <c r="G33" s="128" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B34" s="100"/>
       <c r="C34" s="80" t="s">
+        <v>538</v>
+      </c>
+      <c r="D34" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>518</v>
+      </c>
+      <c r="F34" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="D34" s="126" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" s="103" t="s">
-        <v>519</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>540</v>
-      </c>
       <c r="G34" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B35" s="100"/>
       <c r="C35" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="103" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E36" s="103" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="117" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="115" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B37" s="116"/>
       <c r="C37" s="117" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D37" s="117" t="s">
+        <v>541</v>
+      </c>
+      <c r="E37" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="E37" s="117" t="s">
+      <c r="F37" s="118" t="s">
+        <v>501</v>
+      </c>
+      <c r="G37" s="117" t="s">
         <v>543</v>
-      </c>
-      <c r="F37" s="118" t="s">
-        <v>502</v>
-      </c>
-      <c r="G37" s="117" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="80" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B38" s="92" t="s">
+        <v>544</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>546</v>
-      </c>
       <c r="D38" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E38" s="103">
         <v>2021</v>
       </c>
       <c r="F38" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="G38" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="G38" s="80" t="s">
-        <v>503</v>
-      </c>
       <c r="H38" s="138" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="80" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E39" s="103">
         <v>2021</v>
       </c>
       <c r="F39" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="G39" s="80" t="s">
         <v>502</v>
-      </c>
-      <c r="G39" s="80" t="s">
-        <v>503</v>
       </c>
       <c r="H39" s="138"/>
     </row>
@@ -8448,391 +8448,391 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="139" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="36" t="s">
         <v>550</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="139"/>
       <c r="B2" s="41" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="139"/>
       <c r="B3" s="41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="139"/>
       <c r="B4" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>554</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="139"/>
       <c r="B5" s="41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="139"/>
       <c r="B6" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="139"/>
       <c r="B7" s="41" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="139"/>
       <c r="B8" s="41" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="139"/>
       <c r="B9" s="41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="139"/>
       <c r="B10" s="41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="139"/>
       <c r="B11" s="41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="139"/>
       <c r="B12" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>563</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="139"/>
       <c r="B13" s="41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="139"/>
       <c r="B14" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>566</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="139"/>
       <c r="B15" s="41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="139"/>
       <c r="B16" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="139"/>
       <c r="B17" s="41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="139"/>
       <c r="B18" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>571</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="139"/>
       <c r="B19" s="41" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="139"/>
       <c r="B20" s="41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="139"/>
       <c r="B21" s="41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="139"/>
       <c r="B22" s="41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="139"/>
       <c r="B23" s="41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="139"/>
       <c r="B24" s="41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="139"/>
       <c r="B25" s="41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="139"/>
       <c r="B26" s="41" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="139"/>
       <c r="B27" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="139"/>
       <c r="B28" s="41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="139"/>
       <c r="B29" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>583</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="139"/>
       <c r="B30" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>585</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="139"/>
       <c r="B31" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="139"/>
       <c r="B32" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>588</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="139"/>
       <c r="B33" s="41" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="139"/>
       <c r="B34" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="139"/>
       <c r="B35" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="139"/>
       <c r="B36" s="41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="139"/>
       <c r="B37" s="41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="139"/>
       <c r="B38" s="41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="139"/>
       <c r="B39" s="41" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="139"/>
       <c r="B40" s="41" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="139"/>
       <c r="B41" s="41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="139"/>
       <c r="B42" s="41" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="139"/>
       <c r="B43" s="41" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8848,8 +8848,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8890,238 +8890,238 @@
         <v>23</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>603</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
         <v>604</v>
       </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" s="52" t="s">
         <v>605</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="M2" s="97" t="s">
         <v>606</v>
-      </c>
-      <c r="M2" s="97" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" t="s">
         <v>608</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="52" t="s">
         <v>609</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F3" t="s">
         <v>611</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>612</v>
       </c>
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" s="52" t="s">
         <v>613</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>615</v>
       </c>
-      <c r="B4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="D4" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>617</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F4" s="52" t="s">
+      <c r="G4" t="s">
         <v>618</v>
       </c>
-      <c r="G4" t="s">
-        <v>619</v>
-      </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
+        <v>612</v>
+      </c>
+      <c r="L4" s="52" t="s">
         <v>613</v>
-      </c>
-      <c r="L4" s="52" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>620</v>
       </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="52" t="s">
+      <c r="D5" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>622</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>623</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
         <v>624</v>
       </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" s="52" t="s">
         <v>625</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>627</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="52" t="s">
+      <c r="D6" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" t="s">
         <v>630</v>
       </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>631</v>
       </c>
-      <c r="K6" t="s">
-        <v>632</v>
-      </c>
       <c r="L6" s="52" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="84" t="s">
         <v>633</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="84" t="s">
+      <c r="D7" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="98" t="s">
         <v>635</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="F7" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="L7" s="84" t="s">
+        <v>885</v>
+      </c>
+      <c r="M7" s="84" t="s">
         <v>638</v>
-      </c>
-      <c r="L7" s="84" t="s">
-        <v>886</v>
-      </c>
-      <c r="M7" s="84" t="s">
-        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -9147,7 +9147,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -9173,27 +9173,27 @@
         <v>19</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="84" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="84" t="s">
+      <c r="D2" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -9201,36 +9201,36 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>647</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="D4" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -9238,22 +9238,22 @@
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="84" t="s">
         <v>651</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="D5" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -9261,260 +9261,260 @@
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="84" t="s">
         <v>656</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="84" t="s">
+      <c r="D6" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="84" t="s">
         <v>660</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>675</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>685</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>691</v>
+      </c>
+      <c r="B16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="B16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B17" t="s">
+        <v>484</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>695</v>
+      </c>
+      <c r="B18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="B18" t="s">
-        <v>485</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>699</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>702</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>703</v>
       </c>
-      <c r="B20" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="C20" s="52" t="s">
+      <c r="D20" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -9550,7 +9550,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -9565,583 +9565,583 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B7" t="s">
         <v>714</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>715</v>
-      </c>
-      <c r="C7" t="s">
-        <v>716</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" t="s">
         <v>717</v>
-      </c>
-      <c r="B8" t="s">
-        <v>715</v>
-      </c>
-      <c r="C8" t="s">
-        <v>718</v>
       </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" t="s">
         <v>720</v>
       </c>
-      <c r="B10" t="s">
-        <v>715</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>721</v>
-      </c>
-      <c r="D10" t="s">
-        <v>722</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C16" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>728</v>
+      </c>
+      <c r="B17" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D17" t="s">
         <v>729</v>
-      </c>
-      <c r="B17" t="s">
-        <v>715</v>
-      </c>
-      <c r="C17" t="s">
-        <v>721</v>
-      </c>
-      <c r="D17" t="s">
-        <v>730</v>
       </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C18" t="s">
         <v>731</v>
       </c>
-      <c r="B18" t="s">
-        <v>715</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>732</v>
-      </c>
-      <c r="D18" t="s">
-        <v>733</v>
       </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>733</v>
+      </c>
+      <c r="B19" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" t="s">
         <v>734</v>
-      </c>
-      <c r="B19" t="s">
-        <v>715</v>
-      </c>
-      <c r="C19" t="s">
-        <v>735</v>
       </c>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>737</v>
+      </c>
+      <c r="B22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C22" t="s">
         <v>738</v>
-      </c>
-      <c r="B22" t="s">
-        <v>715</v>
-      </c>
-      <c r="C22" t="s">
-        <v>739</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C23" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B24" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B25" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>742</v>
+      </c>
+      <c r="B26" t="s">
         <v>743</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>744</v>
-      </c>
-      <c r="C26" t="s">
-        <v>745</v>
       </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B28" t="s">
+        <v>743</v>
+      </c>
+      <c r="C28" t="s">
         <v>744</v>
-      </c>
-      <c r="C28" t="s">
-        <v>745</v>
       </c>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>754</v>
+      </c>
+      <c r="B36" t="s">
+        <v>743</v>
+      </c>
+      <c r="C36" t="s">
         <v>755</v>
-      </c>
-      <c r="B36" t="s">
-        <v>744</v>
-      </c>
-      <c r="C36" t="s">
-        <v>756</v>
       </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>757</v>
+      </c>
+      <c r="B38" t="s">
+        <v>743</v>
+      </c>
+      <c r="C38" t="s">
         <v>758</v>
-      </c>
-      <c r="B38" t="s">
-        <v>744</v>
-      </c>
-      <c r="C38" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B39" t="s">
+        <v>743</v>
+      </c>
+      <c r="C39" t="s">
         <v>744</v>
-      </c>
-      <c r="C39" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>760</v>
+      </c>
+      <c r="B40" t="s">
+        <v>743</v>
+      </c>
+      <c r="C40" t="s">
         <v>761</v>
-      </c>
-      <c r="B40" t="s">
-        <v>744</v>
-      </c>
-      <c r="C40" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>762</v>
+      </c>
+      <c r="B41" t="s">
+        <v>743</v>
+      </c>
+      <c r="C41" t="s">
         <v>763</v>
-      </c>
-      <c r="B41" t="s">
-        <v>744</v>
-      </c>
-      <c r="C41" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B43" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B44" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B45" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B47" t="s">
+        <v>743</v>
+      </c>
+      <c r="C47" s="96" t="s">
         <v>744</v>
-      </c>
-      <c r="C47" s="96" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B49" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B50" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C50" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B51" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C51" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B52" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B53" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -10158,6 +10158,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D114E827EF3DF44BA4E59A461CC4DA7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40126c9057e06620348dab06ea2d21d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e" xmlns:ns3="ada5df0c-07a0-4161-869c-31958091f7ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f07d8d367106e205b1a94e6c30003b5" ns2:_="" ns3:_="">
     <xsd:import namespace="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e"/>
@@ -10360,12 +10366,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10376,6 +10376,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57084282-E38C-4E86-BAC4-63FB60E2432A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ada5df0c-07a0-4161-869c-31958091f7ef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5071FD43-0A7A-4615-ACCD-DFA185A1887F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10394,23 +10411,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57084282-E38C-4E86-BAC4-63FB60E2432A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ada5df0c-07a0-4161-869c-31958091f7ef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F90FE7-60B2-45D8-AA06-D09BDCE94429}">
   <ds:schemaRefs>

--- a/data/sjp_data_catalog.xlsx
+++ b/data/sjp_data_catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre-my.sharepoint.com/personal/kcjoe_mitre_org/Documents/Documents/R/sjp-data-catalog/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="6_{E8BFB680-39B2-7943-BA32-D6B47055C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{151CC87A-CE9E-4D56-B7D7-78C4B32FCBBD}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="6_{E8BFB680-39B2-7943-BA32-D6B47055C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D58985A-48FD-4213-8633-8EBC58512B12}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{5CA8705D-7F17-43E2-BAEE-43EEC2F1251D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5CA8705D-7F17-43E2-BAEE-43EEC2F1251D}"/>
   </bookViews>
   <sheets>
     <sheet name="guidelines" sheetId="15" r:id="rId1"/>
@@ -4483,8 +4483,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
@@ -4497,7 +4497,7 @@
     <col min="3" max="3" width="71.6640625" style="63" customWidth="1"/>
     <col min="4" max="5" width="28.6640625" style="69" customWidth="1"/>
     <col min="6" max="6" width="43.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="20" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="18" customWidth="1"/>
     <col min="8" max="8" width="20.109375" style="64" customWidth="1"/>
     <col min="9" max="9" width="19" style="64" customWidth="1"/>
     <col min="10" max="10" width="30.44140625" style="69" customWidth="1"/>
@@ -9550,7 +9550,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -10158,9 +10158,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10367,27 +10370,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57084282-E38C-4E86-BAC4-63FB60E2432A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F90FE7-60B2-45D8-AA06-D09BDCE94429}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ada5df0c-07a0-4161-869c-31958091f7ef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10412,9 +10403,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F90FE7-60B2-45D8-AA06-D09BDCE94429}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57084282-E38C-4E86-BAC4-63FB60E2432A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ada5df0c-07a0-4161-869c-31958091f7ef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/sjp_data_catalog.xlsx
+++ b/data/sjp_data_catalog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre.sharepoint.com/sites/SocialJusticePlatformWSs/Shared Documents/Data Sources and Analysis/Data Catalog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre-my.sharepoint.com/personal/kcjoe_mitre_org/Documents/SJP Project/sjp-data-catalog/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{286C9A01-D768-418D-95F5-CA792BDD9CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE48E6B0-8D28-4C4E-9169-894C77FCC61A}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{286C9A01-D768-418D-95F5-CA792BDD9CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB156317-27C9-4B71-B211-5F1935AD32EB}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{5CA8705D-7F17-43E2-BAEE-43EEC2F1251D}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="1252">
   <si>
     <t>Data Entry Guidelines</t>
   </si>
@@ -6287,10 +6287,10 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -6416,9 +6416,7 @@
       <c r="F3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="69" t="s">
-        <v>406</v>
-      </c>
+      <c r="G3" s="69"/>
       <c r="H3" s="70" t="s">
         <v>23</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="11" customFormat="1" ht="100.8">
+    <row r="34" spans="1:14" s="11" customFormat="1" ht="102">
       <c r="A34" s="37" t="s">
         <v>143</v>
       </c>
@@ -7906,9 +7904,7 @@
       <c r="F38" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="67" t="s">
-        <v>406</v>
-      </c>
+      <c r="G38" s="67"/>
       <c r="H38" s="68" t="s">
         <v>23</v>
       </c>
@@ -14118,6 +14114,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D114E827EF3DF44BA4E59A461CC4DA7" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43ca46e62ee0569e1c156693199bb51e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e" xmlns:ns3="ada5df0c-07a0-4161-869c-31958091f7ef" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3c2d7b02ff637bc90932a8cfde2bdc3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e"/>
@@ -14339,27 +14355,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57084282-E38C-4E86-BAC4-63FB60E2432A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ada5df0c-07a0-4161-869c-31958091f7ef"/>
+    <ds:schemaRef ds:uri="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F90FE7-60B2-45D8-AA06-D09BDCE94429}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD1FBAD-5FE3-4D6B-8D96-89B141478156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14377,30 +14399,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F90FE7-60B2-45D8-AA06-D09BDCE94429}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57084282-E38C-4E86-BAC4-63FB60E2432A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ada5df0c-07a0-4161-869c-31958091f7ef"/>
-    <ds:schemaRef ds:uri="dd37c9a8-aab1-4b0a-adaf-d8ad8475de2e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>